--- a/po_analysis_by_asin/B0CBW16TL3_po_data.xlsx
+++ b/po_analysis_by_asin/B0CBW16TL3_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,15 +452,15 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45376</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>20</v>
@@ -468,23 +468,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45404</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45439</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>280</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45453</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>40</v>
@@ -492,47 +492,47 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45467</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45481</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45495</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45509</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45516</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>40</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45530</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>40</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45537</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>40</v>
@@ -556,25 +556,73 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45558</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45593</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45614</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B17" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B23" t="n">
         <v>40</v>
       </c>
     </row>
@@ -589,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,7 +659,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>60</v>
@@ -619,63 +667,63 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>280</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>80</v>
@@ -683,9 +731,41 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45597</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B15" t="n">
         <v>40</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CBW16TL3_po_data.xlsx
+++ b/po_analysis_by_asin/B0CBW16TL3_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -653,7 +654,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -767,6 +768,467 @@
       </c>
       <c r="B15" t="n">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>61</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-14.30917842252873</v>
+      </c>
+      <c r="D2" t="n">
+        <v>136.3911490405453</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>61</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-11.94283942532171</v>
+      </c>
+      <c r="D3" t="n">
+        <v>130.7144885150359</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>62</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-12.98149206693084</v>
+      </c>
+      <c r="D4" t="n">
+        <v>133.9013913345954</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>63</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-6.998667681503075</v>
+      </c>
+      <c r="D5" t="n">
+        <v>131.668654078593</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>64</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-5.122964196956632</v>
+      </c>
+      <c r="D6" t="n">
+        <v>135.1696281652424</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>64</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-6.040328693296195</v>
+      </c>
+      <c r="D7" t="n">
+        <v>136.6628711098233</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>66</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-8.547371341868498</v>
+      </c>
+      <c r="D8" t="n">
+        <v>140.2141679405349</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>67</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-4.896583482531701</v>
+      </c>
+      <c r="D9" t="n">
+        <v>135.6525061167258</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>68</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.249056127917128</v>
+      </c>
+      <c r="D10" t="n">
+        <v>141.2368803149005</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>69</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-2.462834061675986</v>
+      </c>
+      <c r="D11" t="n">
+        <v>146.0427704188151</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>69</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.2220982289409573</v>
+      </c>
+      <c r="D12" t="n">
+        <v>140.9127209405634</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>70</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-3.273352168332071</v>
+      </c>
+      <c r="D13" t="n">
+        <v>147.6290359624875</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>70</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.706256235176772</v>
+      </c>
+      <c r="D14" t="n">
+        <v>139.9090859737202</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>70</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-4.95889321881076</v>
+      </c>
+      <c r="D15" t="n">
+        <v>139.8365465623714</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>70</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.591471165791148</v>
+      </c>
+      <c r="D16" t="n">
+        <v>142.7783604509277</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>71</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-6.386107834590546</v>
+      </c>
+      <c r="D17" t="n">
+        <v>141.394420721497</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>71</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.476113889949145</v>
+      </c>
+      <c r="D18" t="n">
+        <v>151.3140564381376</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>71</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.02481776719295787</v>
+      </c>
+      <c r="D19" t="n">
+        <v>144.0295714717207</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>72</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.543965958890796</v>
+      </c>
+      <c r="D20" t="n">
+        <v>149.348895280755</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>72</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.132625740798236</v>
+      </c>
+      <c r="D21" t="n">
+        <v>138.7658753959599</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>73</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.429132147515068</v>
+      </c>
+      <c r="D22" t="n">
+        <v>146.8190110075645</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>74</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7.284550617081626</v>
+      </c>
+      <c r="D23" t="n">
+        <v>150.099464106974</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>74</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2056564534167741</v>
+      </c>
+      <c r="D24" t="n">
+        <v>144.9671159183873</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>74</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.411889950728083</v>
+      </c>
+      <c r="D25" t="n">
+        <v>146.4038228416947</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>74</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.283944022520237</v>
+      </c>
+      <c r="D26" t="n">
+        <v>151.0578113378384</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>74</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.030602202318269</v>
+      </c>
+      <c r="D27" t="n">
+        <v>144.110415105809</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>74</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.2121917675466934</v>
+      </c>
+      <c r="D28" t="n">
+        <v>151.2206891667615</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>75</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.420810803196436</v>
+      </c>
+      <c r="D29" t="n">
+        <v>142.4500848446792</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>75</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3837964233432869</v>
+      </c>
+      <c r="D30" t="n">
+        <v>144.950234480275</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>75</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7.983006688082984</v>
+      </c>
+      <c r="D31" t="n">
+        <v>146.7012267573515</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CBW16TL3_po_data.xlsx
+++ b/po_analysis_by_asin/B0CBW16TL3_po_data.xlsx
@@ -781,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,16 +800,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -818,12 +808,6 @@
       <c r="B2" t="n">
         <v>61</v>
       </c>
-      <c r="C2" t="n">
-        <v>-14.30917842252873</v>
-      </c>
-      <c r="D2" t="n">
-        <v>136.3911490405453</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -832,12 +816,6 @@
       <c r="B3" t="n">
         <v>61</v>
       </c>
-      <c r="C3" t="n">
-        <v>-11.94283942532171</v>
-      </c>
-      <c r="D3" t="n">
-        <v>130.7144885150359</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -846,12 +824,6 @@
       <c r="B4" t="n">
         <v>62</v>
       </c>
-      <c r="C4" t="n">
-        <v>-12.98149206693084</v>
-      </c>
-      <c r="D4" t="n">
-        <v>133.9013913345954</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -860,12 +832,6 @@
       <c r="B5" t="n">
         <v>63</v>
       </c>
-      <c r="C5" t="n">
-        <v>-6.998667681503075</v>
-      </c>
-      <c r="D5" t="n">
-        <v>131.668654078593</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -874,12 +840,6 @@
       <c r="B6" t="n">
         <v>64</v>
       </c>
-      <c r="C6" t="n">
-        <v>-5.122964196956632</v>
-      </c>
-      <c r="D6" t="n">
-        <v>135.1696281652424</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -888,12 +848,6 @@
       <c r="B7" t="n">
         <v>64</v>
       </c>
-      <c r="C7" t="n">
-        <v>-6.040328693296195</v>
-      </c>
-      <c r="D7" t="n">
-        <v>136.6628711098233</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -902,12 +856,6 @@
       <c r="B8" t="n">
         <v>66</v>
       </c>
-      <c r="C8" t="n">
-        <v>-8.547371341868498</v>
-      </c>
-      <c r="D8" t="n">
-        <v>140.2141679405349</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -916,12 +864,6 @@
       <c r="B9" t="n">
         <v>67</v>
       </c>
-      <c r="C9" t="n">
-        <v>-4.896583482531701</v>
-      </c>
-      <c r="D9" t="n">
-        <v>135.6525061167258</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -930,12 +872,6 @@
       <c r="B10" t="n">
         <v>68</v>
       </c>
-      <c r="C10" t="n">
-        <v>-0.249056127917128</v>
-      </c>
-      <c r="D10" t="n">
-        <v>141.2368803149005</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -944,12 +880,6 @@
       <c r="B11" t="n">
         <v>69</v>
       </c>
-      <c r="C11" t="n">
-        <v>-2.462834061675986</v>
-      </c>
-      <c r="D11" t="n">
-        <v>146.0427704188151</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -958,12 +888,6 @@
       <c r="B12" t="n">
         <v>69</v>
       </c>
-      <c r="C12" t="n">
-        <v>-0.2220982289409573</v>
-      </c>
-      <c r="D12" t="n">
-        <v>140.9127209405634</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -972,12 +896,6 @@
       <c r="B13" t="n">
         <v>70</v>
       </c>
-      <c r="C13" t="n">
-        <v>-3.273352168332071</v>
-      </c>
-      <c r="D13" t="n">
-        <v>147.6290359624875</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -986,12 +904,6 @@
       <c r="B14" t="n">
         <v>70</v>
       </c>
-      <c r="C14" t="n">
-        <v>-2.706256235176772</v>
-      </c>
-      <c r="D14" t="n">
-        <v>139.9090859737202</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1000,12 +912,6 @@
       <c r="B15" t="n">
         <v>70</v>
       </c>
-      <c r="C15" t="n">
-        <v>-4.95889321881076</v>
-      </c>
-      <c r="D15" t="n">
-        <v>139.8365465623714</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1014,12 +920,6 @@
       <c r="B16" t="n">
         <v>70</v>
       </c>
-      <c r="C16" t="n">
-        <v>-1.591471165791148</v>
-      </c>
-      <c r="D16" t="n">
-        <v>142.7783604509277</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1028,12 +928,6 @@
       <c r="B17" t="n">
         <v>71</v>
       </c>
-      <c r="C17" t="n">
-        <v>-6.386107834590546</v>
-      </c>
-      <c r="D17" t="n">
-        <v>141.394420721497</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1042,12 +936,6 @@
       <c r="B18" t="n">
         <v>71</v>
       </c>
-      <c r="C18" t="n">
-        <v>2.476113889949145</v>
-      </c>
-      <c r="D18" t="n">
-        <v>151.3140564381376</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1056,12 +944,6 @@
       <c r="B19" t="n">
         <v>71</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.02481776719295787</v>
-      </c>
-      <c r="D19" t="n">
-        <v>144.0295714717207</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1070,12 +952,6 @@
       <c r="B20" t="n">
         <v>72</v>
       </c>
-      <c r="C20" t="n">
-        <v>1.543965958890796</v>
-      </c>
-      <c r="D20" t="n">
-        <v>149.348895280755</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1084,12 +960,6 @@
       <c r="B21" t="n">
         <v>72</v>
       </c>
-      <c r="C21" t="n">
-        <v>3.132625740798236</v>
-      </c>
-      <c r="D21" t="n">
-        <v>138.7658753959599</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1098,12 +968,6 @@
       <c r="B22" t="n">
         <v>73</v>
       </c>
-      <c r="C22" t="n">
-        <v>4.429132147515068</v>
-      </c>
-      <c r="D22" t="n">
-        <v>146.8190110075645</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1112,12 +976,6 @@
       <c r="B23" t="n">
         <v>74</v>
       </c>
-      <c r="C23" t="n">
-        <v>7.284550617081626</v>
-      </c>
-      <c r="D23" t="n">
-        <v>150.099464106974</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1126,12 +984,6 @@
       <c r="B24" t="n">
         <v>74</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.2056564534167741</v>
-      </c>
-      <c r="D24" t="n">
-        <v>144.9671159183873</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1140,12 +992,6 @@
       <c r="B25" t="n">
         <v>74</v>
       </c>
-      <c r="C25" t="n">
-        <v>2.411889950728083</v>
-      </c>
-      <c r="D25" t="n">
-        <v>146.4038228416947</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1154,12 +1000,6 @@
       <c r="B26" t="n">
         <v>74</v>
       </c>
-      <c r="C26" t="n">
-        <v>3.283944022520237</v>
-      </c>
-      <c r="D26" t="n">
-        <v>151.0578113378384</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1168,12 +1008,6 @@
       <c r="B27" t="n">
         <v>74</v>
       </c>
-      <c r="C27" t="n">
-        <v>2.030602202318269</v>
-      </c>
-      <c r="D27" t="n">
-        <v>144.110415105809</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1182,12 +1016,6 @@
       <c r="B28" t="n">
         <v>74</v>
       </c>
-      <c r="C28" t="n">
-        <v>-0.2121917675466934</v>
-      </c>
-      <c r="D28" t="n">
-        <v>151.2206891667615</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1196,12 +1024,6 @@
       <c r="B29" t="n">
         <v>75</v>
       </c>
-      <c r="C29" t="n">
-        <v>3.420810803196436</v>
-      </c>
-      <c r="D29" t="n">
-        <v>142.4500848446792</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1210,12 +1032,6 @@
       <c r="B30" t="n">
         <v>75</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.3837964233432869</v>
-      </c>
-      <c r="D30" t="n">
-        <v>144.950234480275</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1223,12 +1039,6 @@
       </c>
       <c r="B31" t="n">
         <v>75</v>
-      </c>
-      <c r="C31" t="n">
-        <v>7.983006688082984</v>
-      </c>
-      <c r="D31" t="n">
-        <v>146.7012267573515</v>
       </c>
     </row>
   </sheetData>
